--- a/output/validation/validation_results.xlsx
+++ b/output/validation/validation_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,41 +473,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>starting_balance</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>1.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>855.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>250</v>
+      </c>
+      <c r="D2" t="n">
+        <v>605.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45</v>
+      </c>
+      <c r="F2" t="n">
+        <v>700.8</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>81.23%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ending_balance</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>2.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1235135780.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>234567890.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1000567890.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>567890.1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>176190.41%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/validation/validation_results.xlsx
+++ b/output/validation/validation_results.xlsx
@@ -477,23 +477,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>855.8</v>
+        <v>35774.43</v>
       </c>
       <c r="C2" t="n">
-        <v>250</v>
+        <v>3107.41</v>
       </c>
       <c r="D2" t="n">
-        <v>605.8</v>
+        <v>32667.02</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>21974.28</v>
       </c>
       <c r="F2" t="n">
-        <v>700.8</v>
+        <v>1823.03</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>81.23%</t>
+          <t>137.27%</t>
         </is>
       </c>
     </row>
@@ -504,23 +504,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1235135780.2</v>
+        <v>37933.73</v>
       </c>
       <c r="C3" t="n">
-        <v>234567890.1</v>
+        <v>19868.21</v>
       </c>
       <c r="D3" t="n">
-        <v>1000567890.1</v>
+        <v>18065.52</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>111960</v>
       </c>
       <c r="F3" t="n">
-        <v>567890.1</v>
+        <v>120672.53</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>176190.41%</t>
+          <t>7.77%</t>
         </is>
       </c>
     </row>

--- a/output/validation/validation_results.xlsx
+++ b/output/validation/validation_results.xlsx
@@ -477,23 +477,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35774.43</v>
+        <v>79655.17000000001</v>
       </c>
       <c r="C2" t="n">
         <v>3107.41</v>
       </c>
       <c r="D2" t="n">
-        <v>32667.02</v>
+        <v>76547.75999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>21974.28</v>
+        <v>37419.19</v>
       </c>
       <c r="F2" t="n">
-        <v>1823.03</v>
+        <v>61148.68000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>137.27%</t>
+          <t>77.66%</t>
         </is>
       </c>
     </row>

--- a/output/validation/validation_results.xlsx
+++ b/output/validation/validation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bank Name</t>
+          <t>Report Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -467,60 +467,571 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Discrepancy as % of transaction volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>discrepancy</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.pdf</t>
+          <t>9.pdf</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79655.17000000001</v>
+        <v>-14819.95999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>3107.41</v>
+        <v>722.6900000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>76547.75999999999</v>
+        <v>-15542.65</v>
       </c>
       <c r="E2" t="n">
-        <v>37419.19</v>
+        <v>48605.79</v>
       </c>
       <c r="F2" t="n">
-        <v>61148.68000000001</v>
+        <v>32770.92000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>77.66%</t>
-        </is>
-      </c>
+          <t>19.10%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>8.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-25636.12999999998</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25636.13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-51272.26</v>
+      </c>
+      <c r="E3" t="n">
+        <v>223779.37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>190825.25</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.37%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Check number 105 appears twice on 3/10 and 3/13; also, check numbers are missing (e.g., 109), and some transactions have ambiguous or duplicate descriptions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>16.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-13783.33999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17998.79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-31782.13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>173883.79</v>
+      </c>
+      <c r="F4" t="n">
+        <v>157952.6600000001</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.58%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Transaction for 'JACK IN THE BOX 8372' on 2023-05-21 has missing or invalid amount; please verify.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>17.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>30166.84999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2922.57</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27244.28</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98792.58</v>
+      </c>
+      <c r="F5" t="n">
+        <v>114984.7100000001</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.74%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>48568.47</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1437.83</v>
+      </c>
+      <c r="D6" t="n">
+        <v>47130.64</v>
+      </c>
+      <c r="E6" t="n">
+        <v>260807.75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>285385.9</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.63%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-38828.64000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-38839.52</v>
+      </c>
+      <c r="E7" t="n">
+        <v>75974.03</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36487.53999999999</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>34.54%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>There is a discrepancy: the sum of credits minus debits plus starting balance does not match the ending balance, possibly due to missing or misparsed transactions or rounding errors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-341974.32</v>
+      </c>
+      <c r="C8" t="n">
+        <v>342017.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-683991.52</v>
+      </c>
+      <c r="E8" t="n">
+        <v>435455.77</v>
+      </c>
+      <c r="F8" t="n">
+        <v>93460.00999999998</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>129.32%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>11.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-18464.38000000002</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2028.08</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-20492.46</v>
+      </c>
+      <c r="E9" t="n">
+        <v>28851.05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8279.820000000003</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>55.19%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-71034.79000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>61995.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-133029.84</v>
+      </c>
+      <c r="E10" t="n">
+        <v>133964</v>
+      </c>
+      <c r="F10" t="n">
+        <v>62256.68</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>67.80%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Transaction on 2023-04-24 for 'POS Purchase TRACTOR S 6921 H' shows no amount; possible missing or unreadable value.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-28821.37999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13803.55</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-42624.93</v>
+      </c>
+      <c r="E11" t="n">
+        <v>55738.95</v>
+      </c>
+      <c r="F11" t="n">
+        <v>34688.77</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>47.14%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Check 2391 appears twice in the check summary with different amounts (500.00 and 1300.00); also, check 2395 is marked with an asterisk as a skip in check sequence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>44019.90000000004</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9475.34</v>
+      </c>
+      <c r="D12" t="n">
+        <v>34544.56</v>
+      </c>
+      <c r="E12" t="n">
+        <v>397047.0099999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>414319.2899999999</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.26%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>19.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-4048.009999999995</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5053.69</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-9101.700000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>55622.32000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>51071.47000000006</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>8.53%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>18.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-5151.669999999994</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18115.33</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-23267</v>
+      </c>
+      <c r="E14" t="n">
+        <v>52498.87</v>
+      </c>
+      <c r="F14" t="n">
+        <v>40865.37000000002</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>24.92%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>7.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>76543.26000000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-219.69</v>
+      </c>
+      <c r="D15" t="n">
+        <v>76762.95</v>
+      </c>
+      <c r="E15" t="n">
+        <v>586343.8200000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>661004.3399999995</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>6.15%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>815.2199999999997</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-9.779999999999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>825</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2014.45</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2426.949999999999</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18.58%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-4443.799999999996</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5325.56</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-9769.360000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>49785</v>
+      </c>
+      <c r="F17" t="n">
+        <v>44900.32</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10.32%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>79655.17000000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3107.41</v>
+      </c>
+      <c r="D18" t="n">
+        <v>76547.75999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>37419.19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>61148.68000000001</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>77.66%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>73144.43000000007</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18702.73</v>
+      </c>
+      <c r="D19" t="n">
+        <v>54441.7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>210403.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>237623.95</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>12.15%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Check numbers 6734, 6739, 6749, 6751, and 6753 are marked as missing from sequence, indicating possible checkbook discrepancies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>2.pdf</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B20" t="n">
         <v>37933.73</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C20" t="n">
         <v>19868.21</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D20" t="n">
         <v>18065.52</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E20" t="n">
         <v>111960</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F20" t="n">
         <v>120672.53</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>7.77%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Check paid on 04/07 for $14,900.00 does not have a check number listed; possible missing or erroneous check number.</t>
         </is>
       </c>
     </row>
